--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>24.35246754259489</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9.327526558775153</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>47.4167810427819</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>66.85128991787712</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.899034250967655</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,125 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.63501591145355</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>22.52767651153969</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8.443367226898834</v>
+      </c>
+      <c r="E3">
+        <v>43.85479884057421</v>
+      </c>
+      <c r="F3">
+        <v>61.02819305222052</v>
+      </c>
+      <c r="G3">
+        <v>1.934489514397146</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>17.19639574986156</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>21.44835709162123</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8.023586121452601</v>
+      </c>
+      <c r="E4">
+        <v>41.62961544183067</v>
+      </c>
+      <c r="F4">
+        <v>57.4886791849417</v>
+      </c>
+      <c r="G4">
+        <v>1.955665746025857</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>16.28999815649274</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>21.02891199778174</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7.857769469377414</v>
+      </c>
+      <c r="E5">
+        <v>40.70984345548973</v>
+      </c>
+      <c r="F5">
+        <v>56.04876104572535</v>
+      </c>
+      <c r="G5">
+        <v>1.964207020292294</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>15.91372427840723</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>20.95892805227962</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7.830529842451482</v>
+      </c>
+      <c r="E6">
+        <v>40.55624931814023</v>
+      </c>
+      <c r="F6">
+        <v>55.80966024428272</v>
+      </c>
+      <c r="G6">
+        <v>1.965621456310921</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>15.85079962901526</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>21.44272254808169</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8.021329684176443</v>
+      </c>
+      <c r="E7">
+        <v>41.61726749478009</v>
+      </c>
+      <c r="F7">
+        <v>57.46925710485188</v>
+      </c>
+      <c r="G7">
+        <v>1.955781224597781</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>16.28495283839063</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>23.729192093548</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9.016515769782989</v>
+      </c>
+      <c r="E8">
+        <v>46.19412690143979</v>
+      </c>
+      <c r="F8">
+        <v>64.83133199132814</v>
+      </c>
+      <c r="G8">
+        <v>1.911424811789608</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>18.14300676638226</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>28.17251538957723</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>11.37680449582224</v>
+      </c>
+      <c r="E9">
+        <v>55.1020838162519</v>
+      </c>
+      <c r="F9">
+        <v>80.0248510381727</v>
+      </c>
+      <c r="G9">
+        <v>1.815620464750634</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>21.67654454350039</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>31.49396733744113</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>13.41891425798116</v>
+      </c>
+      <c r="E10">
+        <v>62.21535700637728</v>
+      </c>
+      <c r="F10">
+        <v>92.88906931030178</v>
+      </c>
+      <c r="G10">
+        <v>1.729421159021622</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>24.38665723809416</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>33.11254307035148</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>14.54168248224777</v>
+      </c>
+      <c r="E11">
+        <v>65.93353249687591</v>
+      </c>
+      <c r="F11">
+        <v>99.83664199819368</v>
+      </c>
+      <c r="G11">
+        <v>1.680763231255131</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>25.74656119109579</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>33.76298652963814</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>15.02496927943713</v>
+      </c>
+      <c r="E12">
+        <v>67.49713549338514</v>
+      </c>
+      <c r="F12">
+        <v>102.7974527469413</v>
+      </c>
+      <c r="G12">
+        <v>1.659554852018048</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>26.30377026920905</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>33.62051267589867</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>14.91729836188796</v>
+      </c>
+      <c r="E13">
+        <v>67.15059479851762</v>
+      </c>
+      <c r="F13">
+        <v>102.1394249323019</v>
+      </c>
+      <c r="G13">
+        <v>1.664293266463201</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>26.18109790223354</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>33.16506405535492</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>14.57994564837202</v>
+      </c>
+      <c r="E14">
+        <v>66.05810063592679</v>
+      </c>
+      <c r="F14">
+        <v>100.0717286271877</v>
+      </c>
+      <c r="G14">
+        <v>1.67908978989316</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>25.79129465308952</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>32.8921261726756</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>14.3824718127996</v>
+      </c>
+      <c r="E15">
+        <v>65.41374860042175</v>
+      </c>
+      <c r="F15">
+        <v>98.85724267332124</v>
+      </c>
+      <c r="G15">
+        <v>1.687715706384446</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>25.55928821623684</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>31.39169877307913</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>13.35126501002464</v>
+      </c>
+      <c r="E16">
+        <v>61.98726187651818</v>
+      </c>
+      <c r="F16">
+        <v>92.46750119302226</v>
+      </c>
+      <c r="G16">
+        <v>1.732324852621327</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>24.30179511515596</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>30.50805718577912</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>12.78080390146904</v>
+      </c>
+      <c r="E17">
+        <v>60.04425109835563</v>
+      </c>
+      <c r="F17">
+        <v>88.89970439455936</v>
+      </c>
+      <c r="G17">
+        <v>1.756681077572925</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>23.57289801592485</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>30.00809427083944</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>12.46839201697303</v>
+      </c>
+      <c r="E18">
+        <v>58.96483697545635</v>
+      </c>
+      <c r="F18">
+        <v>86.93625169526381</v>
+      </c>
+      <c r="G18">
+        <v>1.769920593549415</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>23.16360636372754</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>29.83989407321415</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>12.36484858213625</v>
+      </c>
+      <c r="E19">
+        <v>58.60460781827859</v>
+      </c>
+      <c r="F19">
+        <v>86.28403812515317</v>
+      </c>
+      <c r="G19">
+        <v>1.774292978994161</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>23.02636562460983</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>30.60117616665737</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>12.83978561752374</v>
+      </c>
+      <c r="E20">
+        <v>60.24679981659168</v>
+      </c>
+      <c r="F20">
+        <v>89.26964314409742</v>
+      </c>
+      <c r="G20">
+        <v>1.754173615535816</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>23.64936479283821</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>33.29748917750668</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>14.67699493128337</v>
+      </c>
+      <c r="E21">
+        <v>66.373446215759</v>
+      </c>
+      <c r="F21">
+        <v>100.6674809363007</v>
+      </c>
+      <c r="G21">
+        <v>1.6748409242842</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>25.90427879268317</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>35.33080877780507</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>16.29017011740092</v>
+      </c>
+      <c r="E22">
+        <v>71.49666610138567</v>
+      </c>
+      <c r="F22">
+        <v>110.4571175405984</v>
+      </c>
+      <c r="G22">
+        <v>1.603318536104364</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>27.68195215265499</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>34.19958591808797</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>15.36178504926815</v>
+      </c>
+      <c r="E23">
+        <v>68.57468838829894</v>
+      </c>
+      <c r="F23">
+        <v>104.8498067599331</v>
+      </c>
+      <c r="G23">
+        <v>1.644683217238579</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>26.6820728104896</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>30.55905313810027</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>12.81307309759904</v>
+      </c>
+      <c r="E24">
+        <v>60.15511470449224</v>
+      </c>
+      <c r="F24">
+        <v>89.10212951656165</v>
+      </c>
+      <c r="G24">
+        <v>1.755309542696583</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>23.61476500312797</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>26.97811662021486</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10.70708422810615</v>
+      </c>
+      <c r="E25">
+        <v>52.65671701929681</v>
+      </c>
+      <c r="F25">
+        <v>75.74694816287175</v>
+      </c>
+      <c r="G25">
+        <v>1.843222800880665</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>20.7193980154811</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.35246754259489</v>
+        <v>5.721304232351146</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.327526558775153</v>
+        <v>3.752754088980184</v>
       </c>
       <c r="E2">
-        <v>47.4167810427819</v>
+        <v>30.19417331625258</v>
       </c>
       <c r="F2">
-        <v>66.85128991787712</v>
+        <v>37.30032170571146</v>
       </c>
       <c r="G2">
-        <v>1.899034250967655</v>
+        <v>2.03828215491654</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.43248399643969</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>25.00665296860539</v>
       </c>
       <c r="L2">
-        <v>18.63501591145355</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.37373750262123</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.52767651153969</v>
+        <v>5.439744407055806</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.443367226898834</v>
+        <v>3.834302996422255</v>
       </c>
       <c r="E3">
-        <v>43.85479884057421</v>
+        <v>27.87192476125736</v>
       </c>
       <c r="F3">
-        <v>61.02819305222052</v>
+        <v>35.21200986181529</v>
       </c>
       <c r="G3">
-        <v>1.934489514397146</v>
+        <v>2.05209966747944</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.5224173611077</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>23.16353681986009</v>
       </c>
       <c r="L3">
-        <v>17.19639574986156</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.61722001311559</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44835709162123</v>
+        <v>5.257688117843939</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.023586121452601</v>
+        <v>3.888514734551335</v>
       </c>
       <c r="E4">
-        <v>41.62961544183067</v>
+        <v>26.39496356908923</v>
       </c>
       <c r="F4">
-        <v>57.4886791849417</v>
+        <v>33.92659327048339</v>
       </c>
       <c r="G4">
-        <v>1.955665746025857</v>
+        <v>2.060682145062539</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.58855952096211</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.98223995515444</v>
       </c>
       <c r="L4">
-        <v>16.28999815649274</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.77009988745425</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02891199778174</v>
+        <v>5.181236257469809</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.857769469377414</v>
+        <v>3.911526332545626</v>
       </c>
       <c r="E5">
-        <v>40.70984345548973</v>
+        <v>25.77944694218865</v>
       </c>
       <c r="F5">
-        <v>56.04876104572535</v>
+        <v>33.40211320869662</v>
       </c>
       <c r="G5">
-        <v>1.964207020292294</v>
+        <v>2.064210429326826</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.61808845171293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.48794450874287</v>
       </c>
       <c r="L5">
-        <v>15.91372427840723</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.83326348752812</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95892805227962</v>
+        <v>5.168406307191466</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.830529842451482</v>
+        <v>3.915399855882453</v>
       </c>
       <c r="E6">
-        <v>40.55624931814023</v>
+        <v>25.6763953980047</v>
       </c>
       <c r="F6">
-        <v>55.80966024428272</v>
+        <v>33.3149909630561</v>
       </c>
       <c r="G6">
-        <v>1.965621456310921</v>
+        <v>2.064798326510457</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.62314255400356</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.40507578261704</v>
       </c>
       <c r="L6">
-        <v>15.85079962901526</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.84380436988899</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44272254808169</v>
+        <v>5.256666156712626</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.021329684176443</v>
+        <v>3.888821495252884</v>
       </c>
       <c r="E7">
-        <v>41.61726749478009</v>
+        <v>26.3867187196248</v>
       </c>
       <c r="F7">
-        <v>57.46925710485188</v>
+        <v>33.91952232506185</v>
       </c>
       <c r="G7">
-        <v>1.955781224597781</v>
+        <v>2.0607295962701</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.58894754518231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.97562651349441</v>
       </c>
       <c r="L7">
-        <v>16.28495283839063</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.77094821652369</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.729192093548</v>
+        <v>5.626152216520804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.016515769782989</v>
+        <v>3.779931766749071</v>
       </c>
       <c r="E8">
-        <v>46.19412690143979</v>
+        <v>29.40355505890496</v>
       </c>
       <c r="F8">
-        <v>64.83133199132814</v>
+        <v>36.58096096798963</v>
       </c>
       <c r="G8">
-        <v>1.911424811789608</v>
+        <v>2.043029904038719</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.46111791085941</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24.3811700166344</v>
       </c>
       <c r="L8">
-        <v>18.14300676638226</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.45699613301623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.17251538957723</v>
+        <v>6.276220380180152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.37680449582224</v>
+        <v>3.606299798929784</v>
       </c>
       <c r="E9">
-        <v>55.1020838162519</v>
+        <v>34.95630445194647</v>
       </c>
       <c r="F9">
-        <v>80.0248510381727</v>
+        <v>41.77886847722935</v>
       </c>
       <c r="G9">
-        <v>1.815620464750634</v>
+        <v>2.008780987334019</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.30574603472876</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>28.72705682991192</v>
       </c>
       <c r="L9">
-        <v>21.67654454350039</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.8677029821224</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.49396733744113</v>
+        <v>6.706474584984834</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.41891425798116</v>
+        <v>3.516054274087735</v>
       </c>
       <c r="E10">
-        <v>62.21535700637728</v>
+        <v>38.88598411799698</v>
       </c>
       <c r="F10">
-        <v>92.88906931030178</v>
+        <v>45.71473494752085</v>
       </c>
       <c r="G10">
-        <v>1.729421159021622</v>
+        <v>1.983358903824086</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.26337253245758</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>31.73039969456999</v>
       </c>
       <c r="L10">
-        <v>24.38665723809416</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.45058985685891</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.11254307035148</v>
+        <v>6.891563016875024</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.54168248224777</v>
+        <v>3.487200480334625</v>
       </c>
       <c r="E11">
-        <v>65.93353249687591</v>
+        <v>40.66214310598944</v>
       </c>
       <c r="F11">
-        <v>99.83664199819368</v>
+        <v>47.60361696525852</v>
       </c>
       <c r="G11">
-        <v>1.680763231255131</v>
+        <v>1.971581738037273</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.26330874847974</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>33.06593992809939</v>
       </c>
       <c r="L11">
-        <v>25.74656119109579</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.26441071723688</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.76298652963814</v>
+        <v>6.960090778301424</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.02496927943713</v>
+        <v>3.478489428640871</v>
       </c>
       <c r="E12">
-        <v>67.49713549338514</v>
+        <v>41.33538107101217</v>
       </c>
       <c r="F12">
-        <v>102.7974527469413</v>
+        <v>48.32003552558427</v>
       </c>
       <c r="G12">
-        <v>1.659554852018048</v>
+        <v>1.967074726474177</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.26640944570694</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>33.56836430786609</v>
       </c>
       <c r="L12">
-        <v>26.30377026920905</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.19445510722859</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.62051267589867</v>
+        <v>6.945402068449513</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14.91729836188796</v>
+        <v>3.480258384073838</v>
       </c>
       <c r="E13">
-        <v>67.15059479851762</v>
+        <v>41.19031556220802</v>
       </c>
       <c r="F13">
-        <v>102.1394249323019</v>
+        <v>48.1656617390928</v>
       </c>
       <c r="G13">
-        <v>1.664293266463201</v>
+        <v>1.96804780276061</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.26559625738189</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.46028546676192</v>
       </c>
       <c r="L13">
-        <v>26.18109790223354</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.20949623245956</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.16506405535492</v>
+        <v>6.897232317129895</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14.57994564837202</v>
+        <v>3.486436362785575</v>
       </c>
       <c r="E14">
-        <v>66.05810063592679</v>
+        <v>40.71750260929961</v>
       </c>
       <c r="F14">
-        <v>100.0717286271877</v>
+        <v>47.66252383589994</v>
       </c>
       <c r="G14">
-        <v>1.67908978989316</v>
+        <v>1.971212000382892</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.26349892827631</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>33.10733394335362</v>
       </c>
       <c r="L14">
-        <v>25.79129465308952</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.25864420825689</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.8921261726756</v>
+        <v>6.867522653315149</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14.3824718127996</v>
+        <v>3.490524703368313</v>
       </c>
       <c r="E15">
-        <v>65.41374860042175</v>
+        <v>40.42805313804067</v>
       </c>
       <c r="F15">
-        <v>98.85724267332124</v>
+        <v>47.35453929112248</v>
       </c>
       <c r="G15">
-        <v>1.687715706384446</v>
+        <v>1.973143446130397</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.262632970997</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.8907459998546</v>
       </c>
       <c r="L15">
-        <v>25.55928821623684</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.28882127367092</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.39169877307913</v>
+        <v>6.694161928943267</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13.35126501002464</v>
+        <v>3.518222273351524</v>
       </c>
       <c r="E16">
-        <v>61.98726187651818</v>
+        <v>38.76986051400878</v>
       </c>
       <c r="F16">
-        <v>92.46750119302226</v>
+        <v>45.59135784205062</v>
       </c>
       <c r="G16">
-        <v>1.732324852621327</v>
+        <v>1.984122951801196</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.26379294171318</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31.64258975317642</v>
       </c>
       <c r="L16">
-        <v>24.30179511515596</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.46283128015758</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.50805718577912</v>
+        <v>6.58506455621094</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.78080390146904</v>
+        <v>3.538631915732709</v>
       </c>
       <c r="E17">
-        <v>60.04425109835563</v>
+        <v>37.75113714182489</v>
       </c>
       <c r="F17">
-        <v>88.89970439455936</v>
+        <v>44.50995632416618</v>
       </c>
       <c r="G17">
-        <v>1.756681077572925</v>
+        <v>1.99079336460593</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.2696651885463</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>30.86973283736531</v>
       </c>
       <c r="L17">
-        <v>23.57289801592485</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.57051210706038</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.00809427083944</v>
+        <v>6.521315431207886</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.46839201697303</v>
+        <v>3.551485674478452</v>
       </c>
       <c r="E18">
-        <v>58.96483697545635</v>
+        <v>37.1639490429725</v>
       </c>
       <c r="F18">
-        <v>86.93625169526381</v>
+        <v>43.91910616155241</v>
       </c>
       <c r="G18">
-        <v>1.769920593549415</v>
+        <v>1.994611197257075</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.2748263504573</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>30.42223882490412</v>
       </c>
       <c r="L18">
-        <v>23.16360636372754</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.63278007233191</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.83989407321415</v>
+        <v>6.499560392454335</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.36484858213625</v>
+        <v>3.556016931293532</v>
       </c>
       <c r="E19">
-        <v>58.60460781827859</v>
+        <v>36.96486231626855</v>
       </c>
       <c r="F19">
-        <v>86.28403812515317</v>
+        <v>43.72485248705774</v>
       </c>
       <c r="G19">
-        <v>1.774292978994161</v>
+        <v>1.995901067245643</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.27687005411301</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>30.27018577472845</v>
       </c>
       <c r="L19">
-        <v>23.02636562460983</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.65391940109135</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.60117616665737</v>
+        <v>6.596781793887313</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.83978561752374</v>
+        <v>3.536340928471022</v>
       </c>
       <c r="E20">
-        <v>60.24679981659168</v>
+        <v>37.85969603627522</v>
       </c>
       <c r="F20">
-        <v>89.26964314409742</v>
+        <v>44.62510217416045</v>
       </c>
       <c r="G20">
-        <v>1.754173615535816</v>
+        <v>1.990085343645892</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.26885304257698</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>30.9523046729658</v>
       </c>
       <c r="L20">
-        <v>23.64936479283821</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.55901467893009</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.29748917750668</v>
+        <v>6.911423577447992</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14.67699493128337</v>
+        <v>3.484557364522511</v>
       </c>
       <c r="E21">
-        <v>66.373446215759</v>
+        <v>40.85634048735061</v>
       </c>
       <c r="F21">
-        <v>100.6674809363007</v>
+        <v>47.81026212465186</v>
       </c>
       <c r="G21">
-        <v>1.6748409242842</v>
+        <v>1.970284034196713</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.2640269705947</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>33.21108433849641</v>
       </c>
       <c r="L21">
-        <v>25.90427879268317</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.24419305390885</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.33080877780507</v>
+        <v>7.107943046765038</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.29017011740092</v>
+        <v>3.463929685171732</v>
       </c>
       <c r="E22">
-        <v>71.49666610138567</v>
+        <v>42.820116371881</v>
       </c>
       <c r="F22">
-        <v>110.4571175405984</v>
+        <v>49.89967321514555</v>
       </c>
       <c r="G22">
-        <v>1.603318536104364</v>
+        <v>1.957056408750768</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.27930166234469</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.66870983257149</v>
       </c>
       <c r="L22">
-        <v>27.68195215265499</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.04165645114377</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.19958591808797</v>
+        <v>7.003902428313932</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.36178504926815</v>
+        <v>3.47354560133367</v>
       </c>
       <c r="E23">
-        <v>68.57468838829894</v>
+        <v>41.77060390533811</v>
       </c>
       <c r="F23">
-        <v>104.8498067599331</v>
+        <v>48.783171384671</v>
       </c>
       <c r="G23">
-        <v>1.644683217238579</v>
+        <v>1.964149064155405</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.26932679882334</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>33.89201803032048</v>
       </c>
       <c r="L23">
-        <v>26.6820728104896</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.14944255548618</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.55905313810027</v>
+        <v>6.591487629104437</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.81307309759904</v>
+        <v>3.537373228552235</v>
       </c>
       <c r="E24">
-        <v>60.15511470449224</v>
+        <v>37.81062142980951</v>
       </c>
       <c r="F24">
-        <v>89.10212951656165</v>
+        <v>44.57304687784896</v>
       </c>
       <c r="G24">
-        <v>1.755309542696583</v>
+        <v>1.990405491906311</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.26921468005203</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>30.91498389400354</v>
       </c>
       <c r="L24">
-        <v>23.61476500312797</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.56421154450375</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.97811662021486</v>
+        <v>6.108547974179148</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.70708422810615</v>
+        <v>3.647855430615275</v>
       </c>
       <c r="E25">
-        <v>52.65671701929681</v>
+        <v>33.48646293873658</v>
       </c>
       <c r="F25">
-        <v>75.74694816287175</v>
+        <v>40.37351769614707</v>
       </c>
       <c r="G25">
-        <v>1.843222800880665</v>
+        <v>2.018046850739664</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.33627055107504</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.58770423736971</v>
       </c>
       <c r="L25">
-        <v>20.7193980154811</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.0243496378268</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.721304232351146</v>
+        <v>5.277653829439964</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.752754088980184</v>
+        <v>6.035145143649665</v>
       </c>
       <c r="E2">
-        <v>30.19417331625258</v>
+        <v>16.37091983698481</v>
       </c>
       <c r="F2">
-        <v>37.30032170571146</v>
+        <v>34.68142715939951</v>
       </c>
       <c r="G2">
-        <v>2.03828215491654</v>
+        <v>3.655314214704473</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.43248399643969</v>
+        <v>20.78047897258175</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.00665296860539</v>
+        <v>16.83311981035276</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.37373750262123</v>
+        <v>18.98595218757068</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.439744407055806</v>
+        <v>5.211296798088775</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.834302996422255</v>
+        <v>6.062964248149949</v>
       </c>
       <c r="E3">
-        <v>27.87192476125736</v>
+        <v>15.44472284728718</v>
       </c>
       <c r="F3">
-        <v>35.21200986181529</v>
+        <v>34.27243119398937</v>
       </c>
       <c r="G3">
-        <v>2.05209966747944</v>
+        <v>3.659784321781402</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.5224173611077</v>
+        <v>20.83734276693864</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.16353681986009</v>
+        <v>16.30011171034324</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.61722001311559</v>
+        <v>19.04901790168128</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.257688117843939</v>
+        <v>5.171183486577794</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.888514734551335</v>
+        <v>6.08108398883825</v>
       </c>
       <c r="E4">
-        <v>26.39496356908923</v>
+        <v>14.85290666453555</v>
       </c>
       <c r="F4">
-        <v>33.92659327048339</v>
+        <v>34.03120406656212</v>
       </c>
       <c r="G4">
-        <v>2.060682145062539</v>
+        <v>3.662664203040523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.58855952096211</v>
+        <v>20.87566063376613</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.98223995515444</v>
+        <v>15.96980556576823</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.77009988745425</v>
+        <v>19.08965856504325</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.181236257469809</v>
+        <v>5.155016074071039</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.911526332545626</v>
+        <v>6.088728162740775</v>
       </c>
       <c r="E5">
-        <v>25.77944694218865</v>
+        <v>14.6061952229365</v>
       </c>
       <c r="F5">
-        <v>33.40211320869662</v>
+        <v>33.93549150400312</v>
       </c>
       <c r="G5">
-        <v>2.064210429326826</v>
+        <v>3.663871938778475</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.61808845171293</v>
+        <v>20.89212869433245</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.48794450874287</v>
+        <v>15.83467296391784</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.83326348752812</v>
+        <v>19.10670284144036</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.168406307191466</v>
+        <v>5.152342902761855</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.915399855882453</v>
+        <v>6.090013162375148</v>
       </c>
       <c r="E6">
-        <v>25.6763953980047</v>
+        <v>14.56490333879608</v>
       </c>
       <c r="F6">
-        <v>33.3149909630561</v>
+        <v>33.91975770802576</v>
       </c>
       <c r="G6">
-        <v>2.064798326510457</v>
+        <v>3.664074550261617</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.62314255400356</v>
+        <v>20.89491466049785</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.40507578261704</v>
+        <v>15.81220938232984</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.84380436988899</v>
+        <v>19.10956221202376</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.256666156712626</v>
+        <v>5.170964694971278</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.888821495252884</v>
+        <v>6.081186028384698</v>
       </c>
       <c r="E7">
-        <v>26.3867187196248</v>
+        <v>14.84960146422651</v>
       </c>
       <c r="F7">
-        <v>33.91952232506185</v>
+        <v>34.02990264093963</v>
       </c>
       <c r="G7">
-        <v>2.0607295962701</v>
+        <v>3.662680352459496</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.58894754518231</v>
+        <v>20.87587927649637</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.97562651349441</v>
+        <v>15.96798494767828</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.77094821652369</v>
+        <v>19.0898864741819</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.626152216520804</v>
+        <v>5.254655558426209</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.779931766749071</v>
+        <v>6.044520999859149</v>
       </c>
       <c r="E8">
-        <v>29.40355505890496</v>
+        <v>16.05651588964499</v>
       </c>
       <c r="F8">
-        <v>36.58096096798963</v>
+        <v>34.53841327475705</v>
       </c>
       <c r="G8">
-        <v>2.043029904038719</v>
+        <v>3.656827539420501</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.46111791085941</v>
+        <v>20.7993777230609</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.3811700166344</v>
+        <v>16.65010447120298</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.45699613301623</v>
+        <v>19.00729949110637</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.276220380180152</v>
+        <v>5.422861207195067</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.606299798929784</v>
+        <v>5.980907331573978</v>
       </c>
       <c r="E9">
-        <v>34.95630445194647</v>
+        <v>18.27871368266245</v>
       </c>
       <c r="F9">
-        <v>41.77886847722935</v>
+        <v>35.60942583136313</v>
       </c>
       <c r="G9">
-        <v>2.008780987334019</v>
+        <v>3.646415794325011</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.30574603472876</v>
+        <v>20.67647666030679</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.72705682991192</v>
+        <v>17.95416078343207</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.8677029821224</v>
+        <v>18.86053905564573</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.706474584984834</v>
+        <v>5.547714917893387</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.516054274087735</v>
+        <v>5.939286451511165</v>
       </c>
       <c r="E10">
-        <v>38.88598411799698</v>
+        <v>19.92421650665488</v>
       </c>
       <c r="F10">
-        <v>45.71473494752085</v>
+        <v>36.43466118560521</v>
       </c>
       <c r="G10">
-        <v>1.983358903824086</v>
+        <v>3.639405671770794</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.26337253245758</v>
+        <v>20.60287113126041</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.73039969456999</v>
+        <v>18.88025202998686</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.45058985685891</v>
+        <v>18.76193766984286</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.891563016875024</v>
+        <v>5.604536199992551</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.487200480334625</v>
+        <v>5.921478209014609</v>
       </c>
       <c r="E11">
-        <v>40.66214310598944</v>
+        <v>20.63177144703029</v>
       </c>
       <c r="F11">
-        <v>47.60361696525852</v>
+        <v>36.81693329932443</v>
       </c>
       <c r="G11">
-        <v>1.971581738037273</v>
+        <v>3.63635321692425</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.26330874847974</v>
+        <v>20.57304402476769</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.06593992809939</v>
+        <v>19.29251056768478</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.26441071723688</v>
+        <v>18.71907652431376</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.960090778301424</v>
+        <v>5.626035808526846</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.478489428640871</v>
+        <v>5.91489792362874</v>
       </c>
       <c r="E12">
-        <v>41.33538107101217</v>
+        <v>20.89385099683383</v>
       </c>
       <c r="F12">
-        <v>48.32003552558427</v>
+        <v>36.96255136019669</v>
       </c>
       <c r="G12">
-        <v>1.967074726474177</v>
+        <v>3.635216785896709</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.26640944570694</v>
+        <v>20.56227786776939</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.56836430786609</v>
+        <v>19.44717255575911</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.19445510722859</v>
+        <v>18.7031322969161</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.945402068449513</v>
+        <v>5.621406583137868</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.480258384073838</v>
+        <v>5.916307817922292</v>
       </c>
       <c r="E13">
-        <v>41.19031556220802</v>
+        <v>20.83766731816026</v>
       </c>
       <c r="F13">
-        <v>48.1656617390928</v>
+        <v>36.93115369399797</v>
       </c>
       <c r="G13">
-        <v>1.96804780276061</v>
+        <v>3.635460673370595</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.26559625738189</v>
+        <v>20.56457299065403</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.46028546676192</v>
+        <v>19.41393015224205</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.20949623245956</v>
+        <v>18.70655343923013</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.897232317129895</v>
+        <v>5.60630545183751</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.486436362785575</v>
+        <v>5.920933563175758</v>
       </c>
       <c r="E14">
-        <v>40.71750260929961</v>
+        <v>20.65345003489412</v>
       </c>
       <c r="F14">
-        <v>47.66252383589994</v>
+        <v>36.82889688265484</v>
       </c>
       <c r="G14">
-        <v>1.971212000382892</v>
+        <v>3.636259332817614</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.26349892827631</v>
+        <v>20.5721476734384</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.10733394335362</v>
+        <v>19.30526461206707</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.25864420825689</v>
+        <v>18.71775904538726</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.867522653315149</v>
+        <v>5.597052698373142</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.490524703368313</v>
+        <v>5.923788279103307</v>
       </c>
       <c r="E15">
-        <v>40.42805313804067</v>
+        <v>20.53985012807187</v>
       </c>
       <c r="F15">
-        <v>47.35453929112248</v>
+        <v>36.76636982666655</v>
       </c>
       <c r="G15">
-        <v>1.973143446130397</v>
+        <v>3.636751065288478</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.262632970997</v>
+        <v>20.57685632729921</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.8907459998546</v>
+        <v>19.23851053956145</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.28882127367092</v>
+        <v>18.72466008822704</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.694161928943267</v>
+        <v>5.544000208650301</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.518222273351524</v>
+        <v>5.940473031729391</v>
       </c>
       <c r="E16">
-        <v>38.76986051400878</v>
+        <v>19.87715454824565</v>
       </c>
       <c r="F16">
-        <v>45.59135784205062</v>
+        <v>36.40980609587759</v>
       </c>
       <c r="G16">
-        <v>1.984122951801196</v>
+        <v>3.639607889718899</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.26379294171318</v>
+        <v>20.60489423013096</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.64258975317642</v>
+        <v>18.85311485525395</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.46283128015758</v>
+        <v>18.76477883090288</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.58506455621094</v>
+        <v>5.511445486175597</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.538631915732709</v>
+        <v>5.950997840419913</v>
       </c>
       <c r="E17">
-        <v>37.75113714182489</v>
+        <v>19.46014054666395</v>
       </c>
       <c r="F17">
-        <v>44.50995632416618</v>
+        <v>36.1927341446485</v>
       </c>
       <c r="G17">
-        <v>1.99079336460593</v>
+        <v>3.6413953030597</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.2696651885463</v>
+        <v>20.62303316037535</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.86973283736531</v>
+        <v>18.61426105799048</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.57051210706038</v>
+        <v>18.78990067558883</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.521315431207886</v>
+        <v>5.492724416146457</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.551485674478452</v>
+        <v>5.957157256835075</v>
       </c>
       <c r="E18">
-        <v>37.1639490429725</v>
+        <v>19.21642441205133</v>
       </c>
       <c r="F18">
-        <v>43.91910616155241</v>
+        <v>36.06853428044942</v>
       </c>
       <c r="G18">
-        <v>1.994611197257075</v>
+        <v>3.642436232092302</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.2748263504573</v>
+        <v>20.63381017787897</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.42223882490412</v>
+        <v>18.47603731097127</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.63278007233191</v>
+        <v>18.8045377106797</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.499560392454335</v>
+        <v>5.486387039209884</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.556016931293532</v>
+        <v>5.959260860733815</v>
       </c>
       <c r="E19">
-        <v>36.96486231626855</v>
+        <v>19.13324206084259</v>
       </c>
       <c r="F19">
-        <v>43.72485248705774</v>
+        <v>36.02659858583605</v>
       </c>
       <c r="G19">
-        <v>1.995901067245643</v>
+        <v>3.642790885669204</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.27687005411301</v>
+        <v>20.63751808095156</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.27018577472845</v>
+        <v>18.42909756984064</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.65391940109135</v>
+        <v>18.80952579040297</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.596781793887313</v>
+        <v>5.51491077843472</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.536340928471022</v>
+        <v>5.949866493557508</v>
       </c>
       <c r="E20">
-        <v>37.85969603627522</v>
+        <v>19.50493168836261</v>
       </c>
       <c r="F20">
-        <v>44.62510217416045</v>
+        <v>36.21577504439822</v>
       </c>
       <c r="G20">
-        <v>1.990085343645892</v>
+        <v>3.641203700445945</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.26885304257698</v>
+        <v>20.62106661793608</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.9523046729658</v>
+        <v>18.63977569459344</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.55901467893009</v>
+        <v>18.78720699689461</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.911423577447992</v>
+        <v>5.610741655731854</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.484557364522511</v>
+        <v>5.919570425185513</v>
       </c>
       <c r="E21">
-        <v>40.85634048735061</v>
+        <v>20.70771774418387</v>
       </c>
       <c r="F21">
-        <v>47.81026212465186</v>
+        <v>36.85890986717671</v>
       </c>
       <c r="G21">
-        <v>1.970284034196713</v>
+        <v>3.636024220107652</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.2640269705947</v>
+        <v>20.56990843281834</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.21108433849641</v>
+        <v>19.33722284845427</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.24419305390885</v>
+        <v>18.7144599173417</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.107943046765038</v>
+        <v>5.673262100030112</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.463929685171732</v>
+        <v>5.900722837519683</v>
       </c>
       <c r="E22">
-        <v>42.820116371881</v>
+        <v>21.45969165214097</v>
       </c>
       <c r="F22">
-        <v>49.89967321514555</v>
+        <v>37.28418884324787</v>
       </c>
       <c r="G22">
-        <v>1.957056408750768</v>
+        <v>3.632752526940036</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.27930166234469</v>
+        <v>20.53955674612192</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.66870983257149</v>
+        <v>19.78452525284106</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.04165645114377</v>
+        <v>18.66858452203111</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.003902428313932</v>
+        <v>5.639910641204317</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.47354560133367</v>
+        <v>5.910694468232988</v>
       </c>
       <c r="E23">
-        <v>41.77060390533811</v>
+        <v>21.06145796536646</v>
       </c>
       <c r="F23">
-        <v>48.783171384671</v>
+        <v>37.05679837967813</v>
       </c>
       <c r="G23">
-        <v>1.964149064155405</v>
+        <v>3.634488368005819</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.26932679882334</v>
+        <v>20.55547293772428</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.89201803032048</v>
+        <v>19.54661765741231</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.14944255548618</v>
+        <v>18.69291644017711</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.591487629104437</v>
+        <v>5.513344133555376</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.537373228552235</v>
+        <v>5.950377637434237</v>
       </c>
       <c r="E24">
-        <v>37.81062142980951</v>
+        <v>19.48469397938399</v>
       </c>
       <c r="F24">
-        <v>44.57304687784896</v>
+        <v>36.20535638225326</v>
       </c>
       <c r="G24">
-        <v>1.990405491906311</v>
+        <v>3.641290282482354</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.26921468005203</v>
+        <v>20.62195460585708</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.91498389400354</v>
+        <v>18.62824332981029</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56421154450375</v>
+        <v>18.78842420427308</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.108547974179148</v>
+        <v>5.377046013934224</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.647855430615275</v>
+        <v>5.997223004385758</v>
       </c>
       <c r="E25">
-        <v>33.48646293873658</v>
+        <v>17.66398126275979</v>
       </c>
       <c r="F25">
-        <v>40.37351769614707</v>
+        <v>35.31245620135013</v>
       </c>
       <c r="G25">
-        <v>2.018046850739664</v>
+        <v>3.649119423963286</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.33627055107504</v>
+        <v>20.70680513913403</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.58770423736971</v>
+        <v>17.6062299993847</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.0243496378268</v>
+        <v>18.89861926794912</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.277653829439964</v>
+        <v>5.721304232351205</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.035145143649665</v>
+        <v>3.752754088980227</v>
       </c>
       <c r="E2">
-        <v>16.37091983698481</v>
+        <v>30.19417331625254</v>
       </c>
       <c r="F2">
-        <v>34.68142715939951</v>
+        <v>37.30032170571148</v>
       </c>
       <c r="G2">
-        <v>3.655314214704473</v>
+        <v>2.038282154916275</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.78047897258175</v>
+        <v>14.43248399643969</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.83311981035276</v>
+        <v>25.00665296860541</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.98595218757068</v>
+        <v>12.37373750262126</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.211296798088775</v>
+        <v>5.439744407055866</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.062964248149949</v>
+        <v>3.834302996422313</v>
       </c>
       <c r="E3">
-        <v>15.44472284728718</v>
+        <v>27.87192476125734</v>
       </c>
       <c r="F3">
-        <v>34.27243119398937</v>
+        <v>35.21200986181531</v>
       </c>
       <c r="G3">
-        <v>3.659784321781402</v>
+        <v>2.052099667479309</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.83734276693864</v>
+        <v>14.52241736110772</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.30011171034324</v>
+        <v>23.1635368198601</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.04901790168128</v>
+        <v>12.61722001311565</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.171183486577794</v>
+        <v>5.257688117843857</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.08108398883825</v>
+        <v>3.888514734551343</v>
       </c>
       <c r="E4">
-        <v>14.85290666453555</v>
+        <v>26.39496356908914</v>
       </c>
       <c r="F4">
-        <v>34.03120406656212</v>
+        <v>33.92659327048337</v>
       </c>
       <c r="G4">
-        <v>3.662664203040523</v>
+        <v>2.060682145062538</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.87566063376613</v>
+        <v>14.58855952096211</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.96980556576823</v>
+        <v>21.98223995515442</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.08965856504325</v>
+        <v>12.77009988745421</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.155016074071039</v>
+        <v>5.181236257469815</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.088728162740775</v>
+        <v>3.911526332545526</v>
       </c>
       <c r="E5">
-        <v>14.6061952229365</v>
+        <v>25.77944694218858</v>
       </c>
       <c r="F5">
-        <v>33.93549150400312</v>
+        <v>33.40211320869658</v>
       </c>
       <c r="G5">
-        <v>3.663871938778475</v>
+        <v>2.064210429326822</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.89212869433245</v>
+        <v>14.6180884517129</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.83467296391784</v>
+        <v>21.48794450874298</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.10670284144036</v>
+        <v>12.83326348752809</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.152342902761855</v>
+        <v>5.168406307191466</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.090013162375148</v>
+        <v>3.915399855882577</v>
       </c>
       <c r="E6">
-        <v>14.56490333879608</v>
+        <v>25.6763953980047</v>
       </c>
       <c r="F6">
-        <v>33.91975770802576</v>
+        <v>33.31499096305605</v>
       </c>
       <c r="G6">
-        <v>3.664074550261617</v>
+        <v>2.064798326510325</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.89491466049785</v>
+        <v>14.62314255400351</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.81220938232984</v>
+        <v>21.40507578261709</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.10956221202376</v>
+        <v>12.84380436988896</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.170964694971278</v>
+        <v>5.256666156712632</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.081186028384698</v>
+        <v>3.888821495252993</v>
       </c>
       <c r="E7">
-        <v>14.84960146422651</v>
+        <v>26.38671871962477</v>
       </c>
       <c r="F7">
-        <v>34.02990264093963</v>
+        <v>33.91952232506187</v>
       </c>
       <c r="G7">
-        <v>3.662680352459496</v>
+        <v>2.060729596270103</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.87587927649637</v>
+        <v>14.58894754518235</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.96798494767828</v>
+        <v>21.97562651349435</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.0898864741819</v>
+        <v>12.77094821652375</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.254655558426209</v>
+        <v>5.626152216520719</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.044520999859149</v>
+        <v>3.779931766749029</v>
       </c>
       <c r="E8">
-        <v>16.05651588964499</v>
+        <v>29.40355505890491</v>
       </c>
       <c r="F8">
-        <v>34.53841327475705</v>
+        <v>36.58096096798968</v>
       </c>
       <c r="G8">
-        <v>3.656827539420501</v>
+        <v>2.043029904038721</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.7993777230609</v>
+        <v>14.46111791085951</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.65010447120298</v>
+        <v>24.38117001663444</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.00729949110637</v>
+        <v>12.45699613301627</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.422861207195067</v>
+        <v>6.276220380180145</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.980907331573978</v>
+        <v>3.606299798929831</v>
       </c>
       <c r="E9">
-        <v>18.27871368266245</v>
+        <v>34.95630445194646</v>
       </c>
       <c r="F9">
-        <v>35.60942583136313</v>
+        <v>41.77886847722932</v>
       </c>
       <c r="G9">
-        <v>3.646415794325011</v>
+        <v>2.008780987333886</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.67647666030679</v>
+        <v>14.30574603472883</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.95416078343207</v>
+        <v>28.72705682991189</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.86053905564573</v>
+        <v>11.86770298212246</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.547714917893387</v>
+        <v>6.706474584984883</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.939286451511165</v>
+        <v>3.516054274087864</v>
       </c>
       <c r="E10">
-        <v>19.92421650665488</v>
+        <v>38.88598411799702</v>
       </c>
       <c r="F10">
-        <v>36.43466118560521</v>
+        <v>45.7147349475208</v>
       </c>
       <c r="G10">
-        <v>3.639405671770794</v>
+        <v>1.983358903824088</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.60287113126041</v>
+        <v>14.26337253245757</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.88025202998686</v>
+        <v>31.73039969456997</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.76193766984286</v>
+        <v>11.45058985685896</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.604536199992551</v>
+        <v>6.891563016875065</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.921478209014609</v>
+        <v>3.487200480334668</v>
       </c>
       <c r="E11">
-        <v>20.63177144703029</v>
+        <v>40.66214310598934</v>
       </c>
       <c r="F11">
-        <v>36.81693329932443</v>
+        <v>47.6036169652585</v>
       </c>
       <c r="G11">
-        <v>3.63635321692425</v>
+        <v>1.971581738037273</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.57304402476769</v>
+        <v>14.26330874847974</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.29251056768478</v>
+        <v>33.06593992809935</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.71907652431376</v>
+        <v>11.26441071723694</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.626035808526846</v>
+        <v>6.960090778301399</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.91489792362874</v>
+        <v>3.478489428640946</v>
       </c>
       <c r="E12">
-        <v>20.89385099683383</v>
+        <v>41.33538107101228</v>
       </c>
       <c r="F12">
-        <v>36.96255136019669</v>
+        <v>48.32003552558439</v>
       </c>
       <c r="G12">
-        <v>3.635216785896709</v>
+        <v>1.967074726474171</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.56227786776939</v>
+        <v>14.26640944570694</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.44717255575911</v>
+        <v>33.5683643078662</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.7031322969161</v>
+        <v>11.19445510722857</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.621406583137868</v>
+        <v>6.945402068449587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.916307817922292</v>
+        <v>3.480258384073778</v>
       </c>
       <c r="E13">
-        <v>20.83766731816026</v>
+        <v>41.19031556220804</v>
       </c>
       <c r="F13">
-        <v>36.93115369399797</v>
+        <v>48.16566173909293</v>
       </c>
       <c r="G13">
-        <v>3.635460673370595</v>
+        <v>1.968047802760613</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.56457299065403</v>
+        <v>14.26559625738185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.41393015224205</v>
+        <v>33.46028546676203</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.70655343923013</v>
+        <v>11.20949623245957</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.60630545183751</v>
+        <v>6.897232317129935</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.920933563175758</v>
+        <v>3.486436362785566</v>
       </c>
       <c r="E14">
-        <v>20.65345003489412</v>
+        <v>40.71750260929978</v>
       </c>
       <c r="F14">
-        <v>36.82889688265484</v>
+        <v>47.66252383590004</v>
       </c>
       <c r="G14">
-        <v>3.636259332817614</v>
+        <v>1.971212000382624</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.5721476734384</v>
+        <v>14.26349892827622</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.30526461206707</v>
+        <v>33.10733394335375</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.71775904538726</v>
+        <v>11.25864420825683</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.597052698373142</v>
+        <v>6.86752265331508</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.923788279103307</v>
+        <v>3.490524703368234</v>
       </c>
       <c r="E15">
-        <v>20.53985012807187</v>
+        <v>40.4280531380407</v>
       </c>
       <c r="F15">
-        <v>36.76636982666655</v>
+        <v>47.35453929112244</v>
       </c>
       <c r="G15">
-        <v>3.636751065288478</v>
+        <v>1.973143446130668</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.57685632729921</v>
+        <v>14.26263297099706</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.23851053956145</v>
+        <v>32.89074599985457</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.72466008822704</v>
+        <v>11.28882127367095</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.544000208650301</v>
+        <v>6.694161928943307</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.940473031729391</v>
+        <v>3.518222273351584</v>
       </c>
       <c r="E16">
-        <v>19.87715454824565</v>
+        <v>38.7698605140087</v>
       </c>
       <c r="F16">
-        <v>36.40980609587759</v>
+        <v>45.59135784205062</v>
       </c>
       <c r="G16">
-        <v>3.639607889718899</v>
+        <v>1.984122951801194</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.60489423013096</v>
+        <v>14.26379294171316</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.85311485525395</v>
+        <v>31.64258975317641</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.76477883090288</v>
+        <v>11.46283128015759</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.511445486175597</v>
+        <v>6.585064556210959</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.950997840419913</v>
+        <v>3.538631915732703</v>
       </c>
       <c r="E17">
-        <v>19.46014054666395</v>
+        <v>37.75113714182479</v>
       </c>
       <c r="F17">
-        <v>36.1927341446485</v>
+        <v>44.5099563241662</v>
       </c>
       <c r="G17">
-        <v>3.6413953030597</v>
+        <v>1.990793364606066</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.62303316037535</v>
+        <v>14.26966518854627</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.61426105799048</v>
+        <v>30.86973283736534</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.78990067558883</v>
+        <v>11.57051210706038</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.492724416146457</v>
+        <v>6.521315431207888</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.957157256835075</v>
+        <v>3.551485674478397</v>
       </c>
       <c r="E18">
-        <v>19.21642441205133</v>
+        <v>37.16394904297241</v>
       </c>
       <c r="F18">
-        <v>36.06853428044942</v>
+        <v>43.91910616155236</v>
       </c>
       <c r="G18">
-        <v>3.642436232092302</v>
+        <v>1.994611197257347</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.63381017787897</v>
+        <v>14.27482635045728</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.47603731097127</v>
+        <v>30.42223882490399</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.8045377106797</v>
+        <v>11.6327800723319</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.486387039209884</v>
+        <v>6.499560392454405</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.959260860733815</v>
+        <v>3.556016931293538</v>
       </c>
       <c r="E19">
-        <v>19.13324206084259</v>
+        <v>36.96486231626865</v>
       </c>
       <c r="F19">
-        <v>36.02659858583605</v>
+        <v>43.72485248705772</v>
       </c>
       <c r="G19">
-        <v>3.642790885669204</v>
+        <v>1.99590106724564</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.63751808095156</v>
+        <v>14.276870054113</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.42909756984064</v>
+        <v>30.27018577472846</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.80952579040297</v>
+        <v>11.6539194010914</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.51491077843472</v>
+        <v>6.596781793887279</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.949866493557508</v>
+        <v>3.536340928471055</v>
       </c>
       <c r="E20">
-        <v>19.50493168836261</v>
+        <v>37.85969603627527</v>
       </c>
       <c r="F20">
-        <v>36.21577504439822</v>
+        <v>44.62510217416045</v>
       </c>
       <c r="G20">
-        <v>3.641203700445945</v>
+        <v>1.99008534364629</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.62106661793608</v>
+        <v>14.268853042577</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.63977569459344</v>
+        <v>30.95230467296577</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.78720699689461</v>
+        <v>11.55901467893007</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.610741655731854</v>
+        <v>6.911423577447998</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.919570425185513</v>
+        <v>3.484557364522455</v>
       </c>
       <c r="E21">
-        <v>20.70771774418387</v>
+        <v>40.85634048735054</v>
       </c>
       <c r="F21">
-        <v>36.85890986717671</v>
+        <v>47.81026212465176</v>
       </c>
       <c r="G21">
-        <v>3.636024220107652</v>
+        <v>1.970284034196843</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.56990843281834</v>
+        <v>14.26402697059475</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.33722284845427</v>
+        <v>33.2110843384964</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.7144599173417</v>
+        <v>11.2441930539089</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.673262100030112</v>
+        <v>7.107943046765032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.900722837519683</v>
+        <v>3.463929685171745</v>
       </c>
       <c r="E22">
-        <v>21.45969165214097</v>
+        <v>42.82011637188097</v>
       </c>
       <c r="F22">
-        <v>37.28418884324787</v>
+        <v>49.89967321514568</v>
       </c>
       <c r="G22">
-        <v>3.632752526940036</v>
+        <v>1.957056408750768</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.53955674612192</v>
+        <v>14.27930166234464</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.78452525284106</v>
+        <v>34.66870983257164</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.66858452203111</v>
+        <v>11.04165645114373</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.639910641204317</v>
+        <v>7.003902428313981</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.910694468232988</v>
+        <v>3.473545601333725</v>
       </c>
       <c r="E23">
-        <v>21.06145796536646</v>
+        <v>41.77060390533811</v>
       </c>
       <c r="F23">
-        <v>37.05679837967813</v>
+        <v>48.78317138467093</v>
       </c>
       <c r="G23">
-        <v>3.634488368005819</v>
+        <v>1.964149064155536</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.55547293772428</v>
+        <v>14.26932679882332</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.54661765741231</v>
+        <v>33.89201803032051</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.69291644017711</v>
+        <v>11.14944255548619</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.513344133555376</v>
+        <v>6.591487629104352</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.950377637434237</v>
+        <v>3.537373228552154</v>
       </c>
       <c r="E24">
-        <v>19.48469397938399</v>
+        <v>37.81062142980976</v>
       </c>
       <c r="F24">
-        <v>36.20535638225326</v>
+        <v>44.57304687784923</v>
       </c>
       <c r="G24">
-        <v>3.641290282482354</v>
+        <v>1.990405491905912</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.62195460585708</v>
+        <v>14.26921468005203</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.62824332981029</v>
+        <v>30.91498389400376</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.78842420427308</v>
+        <v>11.56421154450369</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.377046013934224</v>
+        <v>6.108547974179164</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.997223004385758</v>
+        <v>3.647855430615322</v>
       </c>
       <c r="E25">
-        <v>17.66398126275979</v>
+        <v>33.48646293873659</v>
       </c>
       <c r="F25">
-        <v>35.31245620135013</v>
+        <v>40.37351769614707</v>
       </c>
       <c r="G25">
-        <v>3.649119423963286</v>
+        <v>2.018046850739533</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.70680513913403</v>
+        <v>14.33627055107497</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.6062299993847</v>
+        <v>27.5877042373697</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.89861926794912</v>
+        <v>12.02434963782677</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.721304232351205</v>
+        <v>24.09350115075324</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.752754088980227</v>
+        <v>1.507451854289509</v>
       </c>
       <c r="E2">
-        <v>30.19417331625254</v>
+        <v>34.41705976482218</v>
       </c>
       <c r="F2">
-        <v>37.30032170571148</v>
+        <v>29.60493129907541</v>
       </c>
       <c r="G2">
-        <v>2.038282154916275</v>
+        <v>45.0623117352179</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.63646591683378</v>
       </c>
       <c r="I2">
-        <v>14.43248399643969</v>
+        <v>3.815259462763312</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.59273917146493</v>
       </c>
       <c r="K2">
-        <v>25.00665296860541</v>
+        <v>17.76245769909254</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.37373750262126</v>
+        <v>14.66220275792657</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.439744407055866</v>
+        <v>22.5526530394962</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.834302996422313</v>
+        <v>1.561797147812917</v>
       </c>
       <c r="E3">
-        <v>27.87192476125734</v>
+        <v>32.42221603636258</v>
       </c>
       <c r="F3">
-        <v>35.21200986181531</v>
+        <v>27.53213644160909</v>
       </c>
       <c r="G3">
-        <v>2.052099667479309</v>
+        <v>41.75707675708966</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.768400451484351</v>
       </c>
       <c r="I3">
-        <v>14.52241736110772</v>
+        <v>3.982860650029517</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.01721030139178</v>
       </c>
       <c r="K3">
-        <v>23.1635368198601</v>
+        <v>17.62106497712808</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.61722001311565</v>
+        <v>13.73157138865067</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.257688117843857</v>
+        <v>21.55018319500907</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.888514734551343</v>
+        <v>1.619840038377812</v>
       </c>
       <c r="E4">
-        <v>26.39496356908914</v>
+        <v>31.14753492980846</v>
       </c>
       <c r="F4">
-        <v>33.92659327048337</v>
+        <v>26.29220542769947</v>
       </c>
       <c r="G4">
-        <v>2.060682145062538</v>
+        <v>39.64513312414982</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.94770251829779</v>
       </c>
       <c r="I4">
-        <v>14.58855952096211</v>
+        <v>4.088460598306686</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.66298611651777</v>
       </c>
       <c r="K4">
-        <v>21.98223995515442</v>
+        <v>17.55370012124901</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.77009988745421</v>
+        <v>13.13052408702065</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.181236257469815</v>
+        <v>21.12751187567111</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.911526332545526</v>
+        <v>1.6426178570096</v>
       </c>
       <c r="E5">
-        <v>25.77944694218858</v>
+        <v>30.6413966959833</v>
       </c>
       <c r="F5">
-        <v>33.40211320869658</v>
+        <v>25.76562625977246</v>
       </c>
       <c r="G5">
-        <v>2.064210429326822</v>
+        <v>38.74258758250201</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.021623930417669</v>
       </c>
       <c r="I5">
-        <v>14.6180884517129</v>
+        <v>4.134355855739467</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.51344199255086</v>
       </c>
       <c r="K5">
-        <v>21.48794450874298</v>
+        <v>17.55088671079638</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.83326348752809</v>
+        <v>12.88575281210834</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.168406307191466</v>
+        <v>21.05650215266137</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.915399855882577</v>
+        <v>1.645201794648907</v>
       </c>
       <c r="E6">
-        <v>25.6763953980047</v>
+        <v>30.58811987394947</v>
       </c>
       <c r="F6">
-        <v>33.31499096305605</v>
+        <v>25.66260085543246</v>
       </c>
       <c r="G6">
-        <v>2.064798326510325</v>
+        <v>38.56740616622822</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.033735971724894</v>
       </c>
       <c r="I6">
-        <v>14.62314255400351</v>
+        <v>4.144797699376953</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.48234155442169</v>
       </c>
       <c r="K6">
-        <v>21.40507578261709</v>
+        <v>17.57514458872998</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.84380436988896</v>
+        <v>12.85394780223349</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.256666156712632</v>
+        <v>21.54461056448012</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.888821495252993</v>
+        <v>1.616831279227468</v>
       </c>
       <c r="E7">
-        <v>26.38671871962477</v>
+        <v>31.22507799507093</v>
       </c>
       <c r="F7">
-        <v>33.91952232506187</v>
+        <v>26.2451045780476</v>
       </c>
       <c r="G7">
-        <v>2.060729596270103</v>
+        <v>39.56476703263429</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.948046143772737</v>
       </c>
       <c r="I7">
-        <v>14.58894754518235</v>
+        <v>4.096385175834657</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.64417416811984</v>
       </c>
       <c r="K7">
-        <v>21.97562651349435</v>
+        <v>17.62073942613074</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.77094821652375</v>
+        <v>13.15202508412734</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.626152216520719</v>
+        <v>23.57395405960626</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.779931766749029</v>
+        <v>1.495729432987076</v>
       </c>
       <c r="E8">
-        <v>29.40355505890491</v>
+        <v>33.8437290744366</v>
       </c>
       <c r="F8">
-        <v>36.58096096798968</v>
+        <v>28.82752299799217</v>
       </c>
       <c r="G8">
-        <v>2.043029904038721</v>
+        <v>43.85796431001342</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.579481335185812</v>
       </c>
       <c r="I8">
-        <v>14.46111791085951</v>
+        <v>3.881667460021906</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.37381108399633</v>
       </c>
       <c r="K8">
-        <v>24.38117001663444</v>
+        <v>17.80014640725681</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.45699613301627</v>
+        <v>14.37777375942395</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.276220380180145</v>
+        <v>27.10712263726167</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.606299798929831</v>
+        <v>1.693066231842686</v>
       </c>
       <c r="E9">
-        <v>34.95630445194646</v>
+        <v>38.44620807770846</v>
       </c>
       <c r="F9">
-        <v>41.77886847722932</v>
+        <v>33.94580083678117</v>
       </c>
       <c r="G9">
-        <v>2.008780987333886</v>
+        <v>51.73906885491785</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.217885451451558</v>
       </c>
       <c r="I9">
-        <v>14.30574603472883</v>
+        <v>3.469224119686697</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.86391439810423</v>
       </c>
       <c r="K9">
-        <v>28.72705682991189</v>
+        <v>18.1875705269972</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.86770298212246</v>
+        <v>16.50673593337382</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.706474584984883</v>
+        <v>29.43318104943939</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.516054274087864</v>
+        <v>1.8575642217924</v>
       </c>
       <c r="E10">
-        <v>38.88598411799702</v>
+        <v>42.0245411093814</v>
       </c>
       <c r="F10">
-        <v>45.7147349475208</v>
+        <v>37.28183000616047</v>
       </c>
       <c r="G10">
-        <v>1.983358903824088</v>
+        <v>56.84845834113021</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.695116533851763</v>
       </c>
       <c r="I10">
-        <v>14.26337253245757</v>
+        <v>3.184365086919783</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.11890757689599</v>
       </c>
       <c r="K10">
-        <v>31.73039969456997</v>
+        <v>18.90410031093166</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.45058985685896</v>
+        <v>17.84228184351702</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.891563016875065</v>
+        <v>30.43318201472303</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.487200480334668</v>
+        <v>2.01802535701961</v>
       </c>
       <c r="E11">
-        <v>40.66214310598934</v>
+        <v>47.20042452956684</v>
       </c>
       <c r="F11">
-        <v>47.6036169652585</v>
+        <v>37.31416141391411</v>
       </c>
       <c r="G11">
-        <v>1.971581738037273</v>
+        <v>56.61726985060272</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.504739666124275</v>
       </c>
       <c r="I11">
-        <v>14.26330874847974</v>
+        <v>3.087492170405105</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.04336750225692</v>
       </c>
       <c r="K11">
-        <v>33.06593992809935</v>
+        <v>22.12703604954518</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.26441071723694</v>
+        <v>17.63155285036365</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.960090778301399</v>
+        <v>30.80345737264237</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.478489428640946</v>
+        <v>2.174849152417473</v>
       </c>
       <c r="E12">
-        <v>41.33538107101228</v>
+        <v>50.83533771340619</v>
       </c>
       <c r="F12">
-        <v>48.32003552558439</v>
+        <v>36.70778016271554</v>
       </c>
       <c r="G12">
-        <v>1.967074726474171</v>
+        <v>55.46739745812075</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.64583306060522</v>
       </c>
       <c r="I12">
-        <v>14.26640944570694</v>
+        <v>3.04294191401088</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.74445670084841</v>
       </c>
       <c r="K12">
-        <v>33.5683643078662</v>
+        <v>24.78241955810313</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.19445510722857</v>
+        <v>17.14798591705244</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.945402068449587</v>
+        <v>30.72410776595432</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.480258384073778</v>
+        <v>2.332001122157128</v>
       </c>
       <c r="E13">
-        <v>41.19031556220804</v>
+        <v>53.70139439580758</v>
       </c>
       <c r="F13">
-        <v>48.16566173909293</v>
+        <v>35.48050380730234</v>
       </c>
       <c r="G13">
-        <v>1.968047802760613</v>
+        <v>53.37787785404239</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.875429344219235</v>
       </c>
       <c r="I13">
-        <v>14.26559625738185</v>
+        <v>3.049669629986957</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.21390857554528</v>
       </c>
       <c r="K13">
-        <v>33.46028546676203</v>
+        <v>27.23151759013637</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.20949623245957</v>
+        <v>16.4402469908775</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.897232317129935</v>
+        <v>30.46385797554886</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.486436362785566</v>
+        <v>2.447505967334082</v>
       </c>
       <c r="E14">
-        <v>40.71750260929978</v>
+        <v>55.42744020099128</v>
       </c>
       <c r="F14">
-        <v>47.66252383590004</v>
+        <v>34.31021607530992</v>
       </c>
       <c r="G14">
-        <v>1.971212000382624</v>
+        <v>51.43847847849605</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.770935470386553</v>
       </c>
       <c r="I14">
-        <v>14.26349892827622</v>
+        <v>3.079571043035456</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.72443478733999</v>
       </c>
       <c r="K14">
-        <v>33.10733394335375</v>
+        <v>28.89504625926205</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.25864420825683</v>
+        <v>15.8400671890454</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.86752265331508</v>
+        <v>30.30332821713358</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.490524703368234</v>
+        <v>2.471493622199734</v>
       </c>
       <c r="E15">
-        <v>40.4280531380407</v>
+        <v>55.70996983549082</v>
       </c>
       <c r="F15">
-        <v>47.35453929112244</v>
+        <v>33.87212531758436</v>
       </c>
       <c r="G15">
-        <v>1.973143446130668</v>
+        <v>50.72942352839915</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.972164088677705</v>
       </c>
       <c r="I15">
-        <v>14.26263297099706</v>
+        <v>3.102679776867084</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.5467473015544</v>
       </c>
       <c r="K15">
-        <v>32.89074599985457</v>
+        <v>29.27228244707634</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.28882127367095</v>
+        <v>15.65096711914646</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.694161928943307</v>
+        <v>29.36679090723828</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.518222273351584</v>
+        <v>2.381256984978118</v>
       </c>
       <c r="E16">
-        <v>38.7698605140087</v>
+        <v>53.94148075554595</v>
       </c>
       <c r="F16">
-        <v>45.59135784205062</v>
+        <v>32.5449967599713</v>
       </c>
       <c r="G16">
-        <v>1.984122951801194</v>
+        <v>48.69719910151696</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.668388011853593</v>
       </c>
       <c r="I16">
-        <v>14.26379294171316</v>
+        <v>3.231449227372646</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.04795738968867</v>
       </c>
       <c r="K16">
-        <v>31.64258975317641</v>
+        <v>28.53824413983595</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.46283128015759</v>
+        <v>15.20313880549315</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.585064556210959</v>
+        <v>28.77763085598377</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.538631915732703</v>
+        <v>2.242899501053112</v>
       </c>
       <c r="E17">
-        <v>37.75113714182479</v>
+        <v>51.58199113836057</v>
       </c>
       <c r="F17">
-        <v>44.5099563241662</v>
+        <v>32.18208382822333</v>
       </c>
       <c r="G17">
-        <v>1.990793364606066</v>
+        <v>48.22867531108975</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.907242729227026</v>
       </c>
       <c r="I17">
-        <v>14.26966518854627</v>
+        <v>3.314612130533775</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.94106591783572</v>
       </c>
       <c r="K17">
-        <v>30.86973283736534</v>
+        <v>27.05529399762914</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.57051210706038</v>
+        <v>15.18929544618184</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.521315431207888</v>
+        <v>28.43340378966323</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.551485674478397</v>
+        <v>2.060119266969514</v>
       </c>
       <c r="E18">
-        <v>37.16394904297241</v>
+        <v>48.42399712247551</v>
       </c>
       <c r="F18">
-        <v>43.91910616155236</v>
+        <v>32.65380196653791</v>
       </c>
       <c r="G18">
-        <v>1.994611197257347</v>
+        <v>49.13347168544419</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.706678360342692</v>
       </c>
       <c r="I18">
-        <v>14.27482635045728</v>
+        <v>3.355780369548856</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.17876112660609</v>
       </c>
       <c r="K18">
-        <v>30.42223882490399</v>
+        <v>24.73832247157728</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.6327800723319</v>
+        <v>15.5400378179987</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.499560392454405</v>
+        <v>28.31575128727881</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.556016931293538</v>
+        <v>1.899951332308654</v>
       </c>
       <c r="E19">
-        <v>36.96486231626865</v>
+        <v>45.09085330666202</v>
       </c>
       <c r="F19">
-        <v>43.72485248705772</v>
+        <v>33.70500991615121</v>
       </c>
       <c r="G19">
-        <v>1.99590106724564</v>
+        <v>50.98044974086437</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.407367616818043</v>
       </c>
       <c r="I19">
-        <v>14.276870054113</v>
+        <v>3.369977555405649</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.65052738113793</v>
       </c>
       <c r="K19">
-        <v>30.27018577472846</v>
+        <v>22.20336285586366</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.6539194010914</v>
+        <v>16.19169282652469</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.596781793887279</v>
+        <v>28.84048061405385</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.536340928471055</v>
+        <v>1.817698650716746</v>
       </c>
       <c r="E20">
-        <v>37.85969603627527</v>
+        <v>41.33149101751937</v>
       </c>
       <c r="F20">
-        <v>44.62510217416045</v>
+        <v>36.3236268237753</v>
       </c>
       <c r="G20">
-        <v>1.99008534364629</v>
+        <v>55.36086088569223</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.572080310850794</v>
       </c>
       <c r="I20">
-        <v>14.268853042577</v>
+        <v>3.283264434976229</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.75187175157208</v>
       </c>
       <c r="K20">
-        <v>30.95230467296577</v>
+        <v>18.94345709496654</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.55901467893007</v>
+        <v>17.55559117286624</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.911423577447998</v>
+        <v>30.54083541361518</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.484557364522455</v>
+        <v>1.939049339732509</v>
       </c>
       <c r="E21">
-        <v>40.85634048735054</v>
+        <v>43.3227576997004</v>
       </c>
       <c r="F21">
-        <v>47.81026212465176</v>
+        <v>39.09945853793224</v>
       </c>
       <c r="G21">
-        <v>1.970284034196843</v>
+        <v>59.67189647913425</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.945402292458306</v>
       </c>
       <c r="I21">
-        <v>14.26402697059475</v>
+        <v>3.059177625210021</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.81582500745069</v>
       </c>
       <c r="K21">
-        <v>33.2110843384964</v>
+        <v>19.02325028564896</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.2441930539089</v>
+        <v>18.66894746695181</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.107943046765032</v>
+        <v>31.60405302518022</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.463929685171745</v>
+        <v>2.020866849226495</v>
       </c>
       <c r="E22">
-        <v>42.82011637188097</v>
+        <v>44.71347294379414</v>
       </c>
       <c r="F22">
-        <v>49.89967321514568</v>
+        <v>40.82186184347216</v>
       </c>
       <c r="G22">
-        <v>1.957056408750768</v>
+        <v>62.33945188285014</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.182906182401588</v>
       </c>
       <c r="I22">
-        <v>14.27930166234464</v>
+        <v>2.905271301265273</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.47436892345455</v>
       </c>
       <c r="K22">
-        <v>34.66870983257164</v>
+        <v>19.15553460505378</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.04165645114373</v>
+        <v>19.29932641143021</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.003902428313981</v>
+        <v>31.04096808822097</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.473545601333725</v>
+        <v>1.975900671389843</v>
       </c>
       <c r="E23">
-        <v>41.77060390533811</v>
+        <v>43.90068492204671</v>
       </c>
       <c r="F23">
-        <v>48.78317138467093</v>
+        <v>39.93622867902215</v>
       </c>
       <c r="G23">
-        <v>1.964149064155536</v>
+        <v>60.97312808323401</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.055001182176843</v>
       </c>
       <c r="I23">
-        <v>14.26932679882332</v>
+        <v>2.977358343303718</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.13736057637051</v>
       </c>
       <c r="K23">
-        <v>33.89201803032051</v>
+        <v>18.99978756718001</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.14944255548619</v>
+        <v>18.94402132315198</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.591487629104352</v>
+        <v>28.81183304581187</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.537373228552154</v>
+        <v>1.810578530731419</v>
       </c>
       <c r="E24">
-        <v>37.81062142980976</v>
+        <v>40.85397076416511</v>
       </c>
       <c r="F24">
-        <v>44.57304687784923</v>
+        <v>36.46348086481265</v>
       </c>
       <c r="G24">
-        <v>1.990405491905912</v>
+        <v>55.61125596620416</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.570269027496176</v>
       </c>
       <c r="I24">
-        <v>14.26921468005203</v>
+        <v>3.269514684033916</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.8157710639516</v>
       </c>
       <c r="K24">
-        <v>30.91498389400376</v>
+        <v>18.57906922109193</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56421154450369</v>
+        <v>17.57944105051591</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.108547974179164</v>
+        <v>26.19889805819475</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.647855430615322</v>
+        <v>1.636744315810561</v>
       </c>
       <c r="E25">
-        <v>33.48646293873659</v>
+        <v>37.3731565007291</v>
       </c>
       <c r="F25">
-        <v>40.37351769614707</v>
+        <v>32.5488665768038</v>
       </c>
       <c r="G25">
-        <v>2.018046850739533</v>
+        <v>49.57600059293376</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.039304830280061</v>
       </c>
       <c r="I25">
-        <v>14.33627055107497</v>
+        <v>3.591914363729679</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.4053060032236</v>
       </c>
       <c r="K25">
-        <v>27.5877042373697</v>
+        <v>18.19163802206635</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.02434963782677</v>
+        <v>15.99330298075464</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09350115075324</v>
+        <v>24.06802955959387</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.507451854289509</v>
+        <v>1.776201819014399</v>
       </c>
       <c r="E2">
-        <v>34.41705976482218</v>
+        <v>31.31765783446865</v>
       </c>
       <c r="F2">
-        <v>29.60493129907541</v>
+        <v>30.60622043273424</v>
       </c>
       <c r="G2">
-        <v>45.0623117352179</v>
+        <v>47.11526222885634</v>
       </c>
       <c r="H2">
-        <v>1.63646591683378</v>
+        <v>1.710762644321746</v>
       </c>
       <c r="I2">
-        <v>3.815259462763312</v>
+        <v>3.578460020183967</v>
       </c>
       <c r="J2">
-        <v>11.59273917146493</v>
+        <v>12.74299958246016</v>
       </c>
       <c r="K2">
-        <v>17.76245769909254</v>
+        <v>15.43491043409539</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.55675128670673</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.2636807719427</v>
       </c>
       <c r="N2">
-        <v>14.66220275792657</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>13.84889087363596</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5526530394962</v>
+        <v>22.51476276630104</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.561797147812917</v>
+        <v>1.839944876307489</v>
       </c>
       <c r="E3">
-        <v>32.42221603636258</v>
+        <v>29.41982463401297</v>
       </c>
       <c r="F3">
-        <v>27.53213644160909</v>
+        <v>28.6693974256741</v>
       </c>
       <c r="G3">
-        <v>41.75707675708966</v>
+        <v>43.73897479068435</v>
       </c>
       <c r="H3">
-        <v>1.768400451484351</v>
+        <v>1.665175370824839</v>
       </c>
       <c r="I3">
-        <v>3.982860650029517</v>
+        <v>3.718772616870858</v>
       </c>
       <c r="J3">
-        <v>11.01721030139178</v>
+        <v>12.19488734269526</v>
       </c>
       <c r="K3">
-        <v>17.62106497712808</v>
+        <v>15.44298032791668</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.37136629063244</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.4722016599445</v>
       </c>
       <c r="N3">
-        <v>13.73157138865067</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>12.93239631019488</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55018319500907</v>
+        <v>21.50285617215418</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.619840038377812</v>
+        <v>1.879252667410165</v>
       </c>
       <c r="E4">
-        <v>31.14753492980846</v>
+        <v>28.20650730760746</v>
       </c>
       <c r="F4">
-        <v>26.29220542769947</v>
+        <v>27.43987810111414</v>
       </c>
       <c r="G4">
-        <v>39.64513312414982</v>
+        <v>41.57988784756096</v>
       </c>
       <c r="H4">
-        <v>1.94770251829779</v>
+        <v>1.827683995151037</v>
       </c>
       <c r="I4">
-        <v>4.088460598306686</v>
+        <v>3.807545609975464</v>
       </c>
       <c r="J4">
-        <v>10.66298611651777</v>
+        <v>11.85165961372876</v>
       </c>
       <c r="K4">
-        <v>17.55370012124901</v>
+        <v>15.46670389425749</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.28656481300221</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.61175825734521</v>
       </c>
       <c r="N4">
-        <v>13.13052408702065</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>12.35150554563524</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12751187567111</v>
+        <v>21.07587148366168</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.6426178570096</v>
+        <v>1.894283417673188</v>
       </c>
       <c r="E5">
-        <v>30.6413966959833</v>
+        <v>27.71980069325052</v>
       </c>
       <c r="F5">
-        <v>25.76562625977246</v>
+        <v>26.91931267946262</v>
       </c>
       <c r="G5">
-        <v>38.74258758250201</v>
+        <v>40.66184678612954</v>
       </c>
       <c r="H5">
-        <v>2.021623930417669</v>
+        <v>1.894864136084393</v>
       </c>
       <c r="I5">
-        <v>4.134355855739467</v>
+        <v>3.84710194783866</v>
       </c>
       <c r="J5">
-        <v>10.51344199255086</v>
+        <v>11.7063911475873</v>
       </c>
       <c r="K5">
-        <v>17.55088671079638</v>
+        <v>15.49151099645682</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.26418534489975</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.68232929471571</v>
       </c>
       <c r="N5">
-        <v>12.88575281210834</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>12.11952670011047</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.05650215266137</v>
+        <v>21.0041277718079</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.645201794648907</v>
+        <v>1.895520575000397</v>
       </c>
       <c r="E6">
-        <v>30.58811987394947</v>
+        <v>27.66231884507465</v>
       </c>
       <c r="F6">
-        <v>25.66260085543246</v>
+        <v>26.82052518213592</v>
       </c>
       <c r="G6">
-        <v>38.56740616622822</v>
+        <v>40.48800324404235</v>
       </c>
       <c r="H6">
-        <v>2.033735971724894</v>
+        <v>1.906039274010336</v>
       </c>
       <c r="I6">
-        <v>4.144797699376953</v>
+        <v>3.85719421845898</v>
       </c>
       <c r="J6">
-        <v>10.48234155442169</v>
+        <v>11.67747743145743</v>
       </c>
       <c r="K6">
-        <v>17.57514458872998</v>
+        <v>15.50893914524207</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.26686305437411</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.70763446643412</v>
       </c>
       <c r="N6">
-        <v>12.85394780223349</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>12.08812516084116</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.54461056448012</v>
+        <v>21.49730453271114</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.616831279227468</v>
+        <v>1.872622148446993</v>
       </c>
       <c r="E7">
-        <v>31.22507799507093</v>
+        <v>28.24266568811308</v>
       </c>
       <c r="F7">
-        <v>26.2451045780476</v>
+        <v>27.3579570119127</v>
       </c>
       <c r="G7">
-        <v>39.56476703263429</v>
+        <v>41.58132526534059</v>
       </c>
       <c r="H7">
-        <v>1.948046143772737</v>
+        <v>1.829290095308188</v>
       </c>
       <c r="I7">
-        <v>4.096385175834657</v>
+        <v>3.817562702611663</v>
       </c>
       <c r="J7">
-        <v>10.64417416811984</v>
+        <v>11.75354403714747</v>
       </c>
       <c r="K7">
-        <v>17.62073942613074</v>
+        <v>15.50893304352421</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.30692613721593</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.65459012139746</v>
       </c>
       <c r="N7">
-        <v>13.15202508412734</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>12.3626441448103</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.57395405960626</v>
+        <v>23.54470097768511</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.495729432987076</v>
+        <v>1.782281025326911</v>
       </c>
       <c r="E8">
-        <v>33.8437290744366</v>
+        <v>30.6855286564136</v>
       </c>
       <c r="F8">
-        <v>28.82752299799217</v>
+        <v>29.77460303409243</v>
       </c>
       <c r="G8">
-        <v>43.85796431001342</v>
+        <v>46.1079573621732</v>
       </c>
       <c r="H8">
-        <v>1.579481335185812</v>
+        <v>1.622185298395798</v>
       </c>
       <c r="I8">
-        <v>3.881667460021906</v>
+        <v>3.63887512782787</v>
       </c>
       <c r="J8">
-        <v>11.37381108399633</v>
+        <v>12.27571574587305</v>
       </c>
       <c r="K8">
-        <v>17.80014640725681</v>
+        <v>15.50516404668559</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.52950820161064</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.39867547017145</v>
       </c>
       <c r="N8">
-        <v>14.37777375942395</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>13.54475177627664</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10712263726167</v>
+        <v>27.09935694129761</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.693066231842686</v>
+        <v>1.623998360147343</v>
       </c>
       <c r="E9">
-        <v>38.44620807770846</v>
+        <v>35.06634876029581</v>
       </c>
       <c r="F9">
-        <v>33.94580083678117</v>
+        <v>34.67880362060393</v>
       </c>
       <c r="G9">
-        <v>51.73906885491785</v>
+        <v>54.14984852053563</v>
       </c>
       <c r="H9">
-        <v>2.217885451451558</v>
+        <v>2.232411954523227</v>
       </c>
       <c r="I9">
-        <v>3.469224119686697</v>
+        <v>3.292614348490457</v>
       </c>
       <c r="J9">
-        <v>12.86391439810423</v>
+        <v>13.57208516035994</v>
       </c>
       <c r="K9">
-        <v>18.1875705269972</v>
+        <v>15.56014732845821</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.13104124223568</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.91069791815367</v>
       </c>
       <c r="N9">
-        <v>16.50673593337382</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>15.63882559707642</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43318104943939</v>
+        <v>29.43336563495867</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.8575642217924</v>
+        <v>1.572066327420493</v>
       </c>
       <c r="E10">
-        <v>42.0245411093814</v>
+        <v>38.29443429642125</v>
       </c>
       <c r="F10">
-        <v>37.28183000616047</v>
+        <v>37.75244581684164</v>
       </c>
       <c r="G10">
-        <v>56.84845834113021</v>
+        <v>59.70198149499033</v>
       </c>
       <c r="H10">
-        <v>2.695116533851763</v>
+        <v>2.654904171657968</v>
       </c>
       <c r="I10">
-        <v>3.184365086919783</v>
+        <v>3.060323832387558</v>
       </c>
       <c r="J10">
-        <v>14.11890757689599</v>
+        <v>14.01972893988932</v>
       </c>
       <c r="K10">
-        <v>18.90410031093166</v>
+        <v>15.93749090534659</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.86368001426318</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.81082098764103</v>
       </c>
       <c r="N10">
-        <v>17.84228184351702</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>16.89482676133556</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43318201472303</v>
+        <v>30.43480523357782</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.01802535701961</v>
+        <v>1.645941152284027</v>
       </c>
       <c r="E11">
-        <v>47.20042452956684</v>
+        <v>42.38484642794082</v>
       </c>
       <c r="F11">
-        <v>37.31416141391411</v>
+        <v>37.60107053414239</v>
       </c>
       <c r="G11">
-        <v>56.61726985060272</v>
+        <v>60.60907222879987</v>
       </c>
       <c r="H11">
-        <v>3.504739666124275</v>
+        <v>3.430706975915233</v>
       </c>
       <c r="I11">
-        <v>3.087492170405105</v>
+        <v>3.002469820792667</v>
       </c>
       <c r="J11">
-        <v>14.04336750225692</v>
+        <v>13.0020796344866</v>
       </c>
       <c r="K11">
-        <v>22.12703604954518</v>
+        <v>17.98393251939357</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.58129334956989</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.24356417771221</v>
       </c>
       <c r="N11">
-        <v>17.63155285036365</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>16.40582217780314</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80345737264237</v>
+        <v>30.80515834199523</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.174849152417473</v>
+        <v>1.75221279039159</v>
       </c>
       <c r="E12">
-        <v>50.83533771340619</v>
+        <v>45.22827362770446</v>
       </c>
       <c r="F12">
-        <v>36.70778016271554</v>
+        <v>36.99237483069769</v>
       </c>
       <c r="G12">
-        <v>55.46739745812075</v>
+        <v>60.12763131418928</v>
       </c>
       <c r="H12">
-        <v>4.64583306060522</v>
+        <v>4.569687309589956</v>
       </c>
       <c r="I12">
-        <v>3.04294191401088</v>
+        <v>2.977678675569139</v>
       </c>
       <c r="J12">
-        <v>13.74445670084841</v>
+        <v>12.30099033321057</v>
       </c>
       <c r="K12">
-        <v>24.78241955810313</v>
+        <v>19.70262007154603</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.93197200419396</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.51638547050099</v>
       </c>
       <c r="N12">
-        <v>17.14798591705244</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>15.72593388253954</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72410776595432</v>
+        <v>30.72549703976151</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.332001122157128</v>
+        <v>1.853374421262564</v>
       </c>
       <c r="E13">
-        <v>53.70139439580758</v>
+        <v>47.48706331066541</v>
       </c>
       <c r="F13">
-        <v>35.48050380730234</v>
+        <v>35.99957560626869</v>
       </c>
       <c r="G13">
-        <v>53.37787785404239</v>
+        <v>58.31865623502508</v>
       </c>
       <c r="H13">
-        <v>5.875429344219235</v>
+        <v>5.807475393755065</v>
       </c>
       <c r="I13">
-        <v>3.049669629986957</v>
+        <v>2.99271104736215</v>
       </c>
       <c r="J13">
-        <v>13.21390857554528</v>
+        <v>11.94273921112715</v>
       </c>
       <c r="K13">
-        <v>27.23151759013637</v>
+        <v>21.258759060705</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>17.06153751771321</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.74456151882079</v>
       </c>
       <c r="N13">
-        <v>16.4402469908775</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>14.87218392159567</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46385797554886</v>
+        <v>30.46492608893562</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.447505967334082</v>
+        <v>1.917989525888754</v>
       </c>
       <c r="E14">
-        <v>55.42744020099128</v>
+        <v>48.85639377035621</v>
       </c>
       <c r="F14">
-        <v>34.31021607530992</v>
+        <v>35.1029286576215</v>
       </c>
       <c r="G14">
-        <v>51.43847847849605</v>
+        <v>56.41503313044842</v>
       </c>
       <c r="H14">
-        <v>6.770935470386553</v>
+        <v>6.710412394061965</v>
       </c>
       <c r="I14">
-        <v>3.079571043035456</v>
+        <v>3.024091073379918</v>
       </c>
       <c r="J14">
-        <v>12.72443478733999</v>
+        <v>11.83161892014263</v>
       </c>
       <c r="K14">
-        <v>28.89504625926205</v>
+        <v>22.2959379029309</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17.76624281099912</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.6028774603403</v>
       </c>
       <c r="N14">
-        <v>15.8400671890454</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>14.18900176036007</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30332821713358</v>
+        <v>30.30424197248302</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.471493622199734</v>
+        <v>1.925355009231379</v>
       </c>
       <c r="E15">
-        <v>55.70996983549082</v>
+        <v>49.08352254576836</v>
       </c>
       <c r="F15">
-        <v>33.87212531758436</v>
+        <v>34.78144543363433</v>
       </c>
       <c r="G15">
-        <v>50.72942352839915</v>
+        <v>55.64909896835331</v>
       </c>
       <c r="H15">
-        <v>6.972164088677705</v>
+        <v>6.914690306295562</v>
       </c>
       <c r="I15">
-        <v>3.102679776867084</v>
+        <v>3.045738305453204</v>
       </c>
       <c r="J15">
-        <v>12.5467473015544</v>
+        <v>11.86049432564642</v>
       </c>
       <c r="K15">
-        <v>29.27228244707634</v>
+        <v>22.52019944211315</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17.89399693871643</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.80969810137292</v>
       </c>
       <c r="N15">
-        <v>15.65096711914646</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>13.98737224764121</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36679090723828</v>
+        <v>29.36642597544687</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.381256984978118</v>
+        <v>1.820807268141271</v>
       </c>
       <c r="E16">
-        <v>53.94148075554595</v>
+        <v>47.68602409711163</v>
       </c>
       <c r="F16">
-        <v>32.5449967599713</v>
+        <v>33.85563903404019</v>
       </c>
       <c r="G16">
-        <v>48.69719910151696</v>
+        <v>53.02519772601454</v>
       </c>
       <c r="H16">
-        <v>6.668388011853593</v>
+        <v>6.625947522486812</v>
       </c>
       <c r="I16">
-        <v>3.231449227372646</v>
+        <v>3.148116464014397</v>
       </c>
       <c r="J16">
-        <v>12.04795738968867</v>
+        <v>12.32845307745075</v>
       </c>
       <c r="K16">
-        <v>28.53824413983595</v>
+        <v>21.93978163333377</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>17.24479724467152</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.55183401780909</v>
       </c>
       <c r="N16">
-        <v>15.20313880549315</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>13.62595349630517</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.77763085598377</v>
+        <v>28.7758834053829</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.242899501053112</v>
+        <v>1.714800884303231</v>
       </c>
       <c r="E17">
-        <v>51.58199113836057</v>
+        <v>45.78721009610818</v>
       </c>
       <c r="F17">
-        <v>32.18208382822333</v>
+        <v>33.5962606912865</v>
       </c>
       <c r="G17">
-        <v>48.22867531108975</v>
+        <v>52.13639191212</v>
       </c>
       <c r="H17">
-        <v>5.907242729227026</v>
+        <v>5.873455485311974</v>
       </c>
       <c r="I17">
-        <v>3.314612130533775</v>
+        <v>3.210818681645509</v>
       </c>
       <c r="J17">
-        <v>11.94106591783572</v>
+        <v>12.64660995096879</v>
       </c>
       <c r="K17">
-        <v>27.05529399762914</v>
+        <v>20.94689007451874</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.3765959417646</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.89879122101983</v>
       </c>
       <c r="N17">
-        <v>15.18929544618184</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>13.7191781849664</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43340378966323</v>
+        <v>28.43052792592128</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.060119266969514</v>
+        <v>1.6040557529344</v>
       </c>
       <c r="E18">
-        <v>48.42399712247551</v>
+        <v>43.26348957525192</v>
       </c>
       <c r="F18">
-        <v>32.65380196653791</v>
+        <v>33.98340900716646</v>
       </c>
       <c r="G18">
-        <v>49.13347168544419</v>
+        <v>52.60862157301376</v>
       </c>
       <c r="H18">
-        <v>4.706678360342692</v>
+        <v>4.679017489647977</v>
       </c>
       <c r="I18">
-        <v>3.355780369548856</v>
+        <v>3.232654192875386</v>
       </c>
       <c r="J18">
-        <v>12.17876112660609</v>
+        <v>13.02901140424394</v>
       </c>
       <c r="K18">
-        <v>24.73832247157728</v>
+        <v>19.46532434701219</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.21220838979913</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.80667815760747</v>
       </c>
       <c r="N18">
-        <v>15.5400378179987</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>14.22127928960404</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31575128727881</v>
+        <v>28.3124402156396</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.899951332308654</v>
+        <v>1.531497981604693</v>
       </c>
       <c r="E19">
-        <v>45.09085330666202</v>
+        <v>40.61863555809654</v>
       </c>
       <c r="F19">
-        <v>33.70500991615121</v>
+        <v>34.84229105757759</v>
       </c>
       <c r="G19">
-        <v>50.98044974086437</v>
+        <v>54.01962545696163</v>
       </c>
       <c r="H19">
-        <v>3.407367616818043</v>
+        <v>3.383873743480059</v>
       </c>
       <c r="I19">
-        <v>3.369977555405649</v>
+        <v>3.235456950832462</v>
       </c>
       <c r="J19">
-        <v>12.65052738113793</v>
+        <v>13.47250814313536</v>
       </c>
       <c r="K19">
-        <v>22.20336285586366</v>
+        <v>17.89945564104605</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.04657555546413</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.58999868686424</v>
       </c>
       <c r="N19">
-        <v>16.19169282652469</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>15.04369590888135</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.84048061405385</v>
+        <v>28.83910272897128</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.817698650716746</v>
+        <v>1.547101947077513</v>
       </c>
       <c r="E20">
-        <v>41.33149101751937</v>
+        <v>37.70215078833476</v>
       </c>
       <c r="F20">
-        <v>36.3236268237753</v>
+        <v>37.00199496842814</v>
       </c>
       <c r="G20">
-        <v>55.36086088569223</v>
+        <v>57.96328499609398</v>
       </c>
       <c r="H20">
-        <v>2.572080310850794</v>
+        <v>2.54721411474115</v>
       </c>
       <c r="I20">
-        <v>3.283264434976229</v>
+        <v>3.150913958128226</v>
       </c>
       <c r="J20">
-        <v>13.75187175157208</v>
+        <v>14.11864521639794</v>
       </c>
       <c r="K20">
-        <v>18.94345709496654</v>
+        <v>15.95520617298216</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.7536414621728</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.93233701538469</v>
       </c>
       <c r="N20">
-        <v>17.55559117286624</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>16.63127757920353</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.54083541361518</v>
+        <v>30.54304267052868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.939049339732509</v>
+        <v>1.619080190929309</v>
       </c>
       <c r="E21">
-        <v>43.3227576997004</v>
+        <v>39.2521495066398</v>
       </c>
       <c r="F21">
-        <v>39.09945853793224</v>
+        <v>38.91908110295302</v>
       </c>
       <c r="G21">
-        <v>59.67189647913425</v>
+        <v>63.38410271365805</v>
       </c>
       <c r="H21">
-        <v>2.945402292458306</v>
+        <v>2.867740933801643</v>
       </c>
       <c r="I21">
-        <v>3.059177625210021</v>
+        <v>2.970227894619094</v>
       </c>
       <c r="J21">
-        <v>14.81582500745069</v>
+        <v>13.2729059090842</v>
       </c>
       <c r="K21">
-        <v>19.02325028564896</v>
+        <v>16.11376972823536</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.23224562354514</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.74439270540565</v>
       </c>
       <c r="N21">
-        <v>18.66894746695181</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>17.63772500628036</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.60405302518022</v>
+        <v>31.60702136443377</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.020866849226495</v>
+        <v>1.676342930733314</v>
       </c>
       <c r="E22">
-        <v>44.71347294379414</v>
+        <v>40.31966375293313</v>
       </c>
       <c r="F22">
-        <v>40.82186184347216</v>
+        <v>40.07182119334882</v>
       </c>
       <c r="G22">
-        <v>62.33945188285014</v>
+        <v>66.80564109268377</v>
       </c>
       <c r="H22">
-        <v>3.182906182401588</v>
+        <v>3.069659854855139</v>
       </c>
       <c r="I22">
-        <v>2.905271301265273</v>
+        <v>2.842822741128042</v>
       </c>
       <c r="J22">
-        <v>15.47436892345455</v>
+        <v>12.6348665329426</v>
       </c>
       <c r="K22">
-        <v>19.15553460505378</v>
+        <v>16.28025409912293</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.59232171370481</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.67207716195897</v>
       </c>
       <c r="N22">
-        <v>19.29932641143021</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>18.18817185234126</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.04096808822097</v>
+        <v>31.04371089134206</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.975900671389843</v>
+        <v>1.645106896720373</v>
       </c>
       <c r="E23">
-        <v>43.90068492204671</v>
+        <v>39.7389694987398</v>
       </c>
       <c r="F23">
-        <v>39.93622867902215</v>
+        <v>39.56464288444946</v>
       </c>
       <c r="G23">
-        <v>60.97312808323401</v>
+        <v>64.90867217283706</v>
       </c>
       <c r="H23">
-        <v>3.055001182176843</v>
+        <v>2.96317974978309</v>
       </c>
       <c r="I23">
-        <v>2.977358343303718</v>
+        <v>2.897516961370551</v>
       </c>
       <c r="J23">
-        <v>15.13736057637051</v>
+        <v>13.16228295471129</v>
       </c>
       <c r="K23">
-        <v>18.99978756718001</v>
+        <v>16.11529387898295</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.34372378038275</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.65062511131384</v>
       </c>
       <c r="N23">
-        <v>18.94402132315198</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>17.8915174623082</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81183304581187</v>
+        <v>28.81040648146045</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.810578530731419</v>
+        <v>1.549722271831122</v>
       </c>
       <c r="E24">
-        <v>40.85397076416511</v>
+        <v>37.3236650074297</v>
       </c>
       <c r="F24">
-        <v>36.46348086481265</v>
+        <v>37.11497665896996</v>
       </c>
       <c r="G24">
-        <v>55.61125596620416</v>
+        <v>58.13863322870616</v>
       </c>
       <c r="H24">
-        <v>2.570269027496176</v>
+        <v>2.548524950130061</v>
       </c>
       <c r="I24">
-        <v>3.269514684033916</v>
+        <v>3.131882137887691</v>
       </c>
       <c r="J24">
-        <v>13.8157710639516</v>
+        <v>14.18668305419802</v>
       </c>
       <c r="K24">
-        <v>18.57906922109193</v>
+        <v>15.73392629326839</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.58774500044031</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.75888111101696</v>
       </c>
       <c r="N24">
-        <v>17.57944105051591</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>16.68172437442741</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19889805819475</v>
+        <v>26.18671556877127</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.636744315810561</v>
+        <v>1.665682529993429</v>
       </c>
       <c r="E25">
-        <v>37.3731565007291</v>
+        <v>34.04899871287874</v>
       </c>
       <c r="F25">
-        <v>32.5488665768038</v>
+        <v>33.38128389485392</v>
       </c>
       <c r="G25">
-        <v>49.57600059293376</v>
+        <v>51.89011735631536</v>
       </c>
       <c r="H25">
-        <v>2.039304830280061</v>
+        <v>2.071722897605216</v>
       </c>
       <c r="I25">
-        <v>3.591914363729679</v>
+        <v>3.400468101271643</v>
       </c>
       <c r="J25">
-        <v>12.4053060032236</v>
+        <v>13.31414560567457</v>
       </c>
       <c r="K25">
-        <v>18.19163802206635</v>
+        <v>15.59624113622658</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.99324441966607</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.08871773190131</v>
       </c>
       <c r="N25">
-        <v>15.99330298075464</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>15.1343886830638</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
